--- a/OpProject2.xlsx
+++ b/OpProject2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/779edd69e2276b4a/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayce\OneDrive\Desktop\os-proj2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="8_{11CC4BFF-04CB-41BA-82C9-7325D3432BA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{E8D35D2C-07FD-45FB-9A86-FD11C2332819}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="8_{11CC4BFF-04CB-41BA-82C9-7325D3432BA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{9F98A6D9-202B-4A53-A1EB-C2A291097AE2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7D17D853-352F-4025-A4FC-7BF52474D8B6}"/>
   </bookViews>
@@ -147,7 +147,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>GCC.TACE</a:t>
+              <a:t>GCC.TRACE</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -517,7 +517,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$2</c15:sqref>
@@ -546,7 +546,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$3:$A$12</c15:sqref>
@@ -591,7 +591,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$3:$D$12</c15:sqref>
@@ -635,7 +635,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-FAA0-49FD-83D5-A955C6A055BC}"/>
                   </c:ext>
@@ -648,7 +648,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$2</c15:sqref>
@@ -677,7 +677,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$3:$A$12</c15:sqref>
@@ -722,7 +722,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$3:$E$12</c15:sqref>
@@ -766,7 +766,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-FAA0-49FD-83D5-A955C6A055BC}"/>
                   </c:ext>
@@ -5554,8 +5554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D948074-D844-4D0B-A1C3-E1C472539CEA}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/OpProject2.xlsx
+++ b/OpProject2.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayce\OneDrive\Desktop\os-proj2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark Yo\Downloads\os-proj2-console\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="8_{11CC4BFF-04CB-41BA-82C9-7325D3432BA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{9F98A6D9-202B-4A53-A1EB-C2A291097AE2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7D17D853-352F-4025-A4FC-7BF52474D8B6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18705" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>FIFO</t>
   </si>
@@ -59,11 +58,14 @@
   <si>
     <t>Page Fault</t>
   </si>
+  <si>
+    <t>VMS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,7 +115,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -297,7 +299,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FAA0-49FD-83D5-A955C6A055BC}"/>
             </c:ext>
@@ -361,11 +363,70 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-FAA0-49FD-83D5-A955C6A055BC}"/>
             </c:ext>
           </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>VMS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$31:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>247926</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>175663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92815</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58055</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39822</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38932</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20455</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -376,9 +437,9 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="427249472"/>
-        <c:axId val="427249800"/>
-        <c:extLst>
+        <c:axId val="396161168"/>
+        <c:axId val="396149016"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -386,7 +447,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$2</c15:sqref>
@@ -415,7 +476,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$3:$A$12</c15:sqref>
@@ -460,7 +521,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$3:$C$12</c15:sqref>
@@ -504,7 +565,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-FAA0-49FD-83D5-A955C6A055BC}"/>
                   </c:ext>
@@ -517,7 +578,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$2</c15:sqref>
@@ -546,7 +607,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$3:$A$12</c15:sqref>
@@ -591,7 +652,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$3:$D$12</c15:sqref>
@@ -635,7 +696,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-FAA0-49FD-83D5-A955C6A055BC}"/>
                   </c:ext>
@@ -648,7 +709,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$2</c15:sqref>
@@ -677,7 +738,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$3:$A$12</c15:sqref>
@@ -722,7 +783,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$3:$E$12</c15:sqref>
@@ -766,7 +827,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-FAA0-49FD-83D5-A955C6A055BC}"/>
                   </c:ext>
@@ -777,7 +838,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="427249472"/>
+        <c:axId val="396161168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -809,6 +870,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -875,7 +937,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427249800"/>
+        <c:crossAx val="396149016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -883,7 +945,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="427249800"/>
+        <c:axId val="396149016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -929,6 +991,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -989,7 +1052,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427249472"/>
+        <c:crossAx val="396161168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1003,6 +1066,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1034,14 +1098,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1077,7 +1141,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1116,6 +1180,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1248,7 +1313,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E33E-42E6-99A9-DE6D8CF0C1EB}"/>
             </c:ext>
@@ -1351,7 +1416,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E33E-42E6-99A9-DE6D8CF0C1EB}"/>
             </c:ext>
@@ -1366,11 +1431,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="425069352"/>
-        <c:axId val="425073944"/>
+        <c:axId val="396150192"/>
+        <c:axId val="396150976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="425069352"/>
+        <c:axId val="396150192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1407,6 +1472,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1473,7 +1539,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425073944"/>
+        <c:crossAx val="396150976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1481,7 +1547,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="425073944"/>
+        <c:axId val="396150976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1527,6 +1593,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1587,7 +1654,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425069352"/>
+        <c:crossAx val="396150192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1601,6 +1668,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1632,14 +1700,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1675,7 +1743,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1714,6 +1782,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1846,7 +1915,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0B29-4012-A597-73EFD213736A}"/>
             </c:ext>
@@ -1949,7 +2018,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0B29-4012-A597-73EFD213736A}"/>
             </c:ext>
@@ -1964,11 +2033,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="425069352"/>
-        <c:axId val="425073944"/>
+        <c:axId val="396152544"/>
+        <c:axId val="396161560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="425069352"/>
+        <c:axId val="396152544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2005,6 +2074,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2071,7 +2141,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425073944"/>
+        <c:crossAx val="396161560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2079,7 +2149,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="425073944"/>
+        <c:axId val="396161560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2125,6 +2195,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2185,7 +2256,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425069352"/>
+        <c:crossAx val="396152544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2199,6 +2270,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2230,14 +2302,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2273,7 +2345,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2320,6 +2392,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2452,7 +2525,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7782-4805-BA6C-770E009BFDEB}"/>
             </c:ext>
@@ -2555,7 +2628,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7782-4805-BA6C-770E009BFDEB}"/>
             </c:ext>
@@ -2570,11 +2643,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="425069352"/>
-        <c:axId val="425073944"/>
+        <c:axId val="396161952"/>
+        <c:axId val="396162344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="425069352"/>
+        <c:axId val="396161952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2611,6 +2684,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2677,7 +2751,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425073944"/>
+        <c:crossAx val="396162344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2685,7 +2759,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="425073944"/>
+        <c:axId val="396162344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2731,6 +2805,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2791,7 +2866,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425069352"/>
+        <c:crossAx val="396161952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2805,6 +2880,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2836,14 +2912,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5122,7 +5198,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAF99534-9FC0-445F-BC23-546AED5717CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAF99534-9FC0-445F-BC23-546AED5717CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5158,7 +5234,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D64A79C-E62E-46DE-8F77-9CDC5FC48396}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D64A79C-E62E-46DE-8F77-9CDC5FC48396}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5194,7 +5270,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C18C122B-010E-4398-BB75-12F6606AE134}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C18C122B-010E-4398-BB75-12F6606AE134}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5232,7 +5308,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97C5E418-873B-4F14-BD1E-6F72A05A514F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{97C5E418-873B-4F14-BD1E-6F72A05A514F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5551,22 +5627,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D948074-D844-4D0B-A1C3-E1C472539CEA}">
-  <dimension ref="A1:E27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5574,7 +5650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5591,7 +5667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5608,7 +5684,7 @@
         <v>228838</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -5625,7 +5701,7 @@
         <v>128601</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8</v>
       </c>
@@ -5642,7 +5718,7 @@
         <v>47828</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>16</v>
       </c>
@@ -5659,7 +5735,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32</v>
       </c>
@@ -5676,7 +5752,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>64</v>
       </c>
@@ -5693,7 +5769,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>128</v>
       </c>
@@ -5710,7 +5786,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>256</v>
       </c>
@@ -5727,7 +5803,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>512</v>
       </c>
@@ -5744,7 +5820,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1024</v>
       </c>
@@ -5761,7 +5837,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -5769,7 +5845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -5786,7 +5862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -5803,7 +5879,7 @@
         <v>154429</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -5820,7 +5896,7 @@
         <v>92770</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
@@ -5837,7 +5913,7 @@
         <v>30691</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>16</v>
       </c>
@@ -5854,7 +5930,7 @@
         <v>3344</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>32</v>
       </c>
@@ -5871,7 +5947,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>64</v>
       </c>
@@ -5888,7 +5964,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>128</v>
       </c>
@@ -5905,7 +5981,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>256</v>
       </c>
@@ -5922,7 +5998,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>512</v>
       </c>
@@ -5939,7 +6015,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1024</v>
       </c>
@@ -5954,6 +6030,102 @@
       </c>
       <c r="E27">
         <v>317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>247926</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>175663</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>142009</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>16</v>
+      </c>
+      <c r="B34">
+        <v>115159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>92815</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>64</v>
+      </c>
+      <c r="B36">
+        <v>58055</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>128</v>
+      </c>
+      <c r="B37">
+        <v>39822</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>256</v>
+      </c>
+      <c r="B38">
+        <v>38932</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>512</v>
+      </c>
+      <c r="B39">
+        <v>20455</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1024</v>
+      </c>
+      <c r="B40">
+        <v>9700</v>
       </c>
     </row>
   </sheetData>
